--- a/Data/aearep-1745/candidatepackages.xlsx
+++ b/Data/aearep-1745/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="106">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,21 +22,15 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
-    <t>ftools</t>
+    <t>coefplot</t>
   </si>
   <si>
     <t>unique</t>
   </si>
   <si>
-    <t>coefplot</t>
-  </si>
-  <si>
     <t>groups</t>
   </si>
   <si>
@@ -46,24 +40,18 @@
     <t>lassopack</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
+    <t>title</t>
   </si>
   <si>
     <t>sq</t>
   </si>
   <si>
-    <t>title</t>
+    <t>norm</t>
   </si>
   <si>
     <t>cluster</t>
   </si>
   <si>
-    <t>norm</t>
-  </si>
-  <si>
     <t>levels</t>
   </si>
   <si>
@@ -73,36 +61,24 @@
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
+    <t>pre</t>
   </si>
   <si>
     <t>nearest</t>
   </si>
   <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>tr</t>
   </si>
   <si>
     <t>intext</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>tr</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
     <t>majority</t>
   </si>
   <si>
@@ -124,9 +100,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1745</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1745/130544/Replication</t>
   </si>
   <si>
@@ -145,18 +118,9 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-1745/130544/Replication/make_data_do</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1745/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>install_userwritten_commands.do</t>
   </si>
   <si>
@@ -368,9 +332,6 @@
   </si>
   <si>
     <t>prepare_formal_measure.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -414,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -422,13 +383,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -448,7 +409,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -460,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -472,7 +433,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -484,7 +445,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -496,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -508,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -520,10 +481,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>92</v>
+        <v>499</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D9"/>
     </row>
@@ -532,10 +493,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>128</v>
+        <v>525</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D10"/>
     </row>
@@ -544,10 +505,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>267</v>
+        <v>539</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D11"/>
     </row>
@@ -556,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>279</v>
+        <v>563</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D12"/>
     </row>
@@ -568,10 +529,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>563</v>
+        <v>706</v>
       </c>
       <c r="C13">
-        <v>0.18667109310626984</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D13"/>
     </row>
@@ -580,10 +541,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>565</v>
+        <v>712</v>
       </c>
       <c r="C14">
-        <v>0.18733422458171844</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D14"/>
     </row>
@@ -592,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>566</v>
+        <v>998</v>
       </c>
       <c r="C15">
-        <v>0.18766577541828156</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D15"/>
     </row>
@@ -604,10 +565,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>594</v>
+        <v>1428</v>
       </c>
       <c r="C16">
-        <v>0.19694960117340088</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D16"/>
     </row>
@@ -616,10 +577,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>694</v>
+        <v>1469</v>
       </c>
       <c r="C17">
-        <v>0.23010610044002533</v>
+        <v>0.48561984300613403</v>
       </c>
       <c r="D17"/>
     </row>
@@ -628,10 +589,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>745</v>
+        <v>1724</v>
       </c>
       <c r="C18">
-        <v>0.24701590836048126</v>
+        <v>0.56991738080978394</v>
       </c>
       <c r="D18"/>
     </row>
@@ -640,10 +601,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>985</v>
+        <v>1971</v>
       </c>
       <c r="C19">
-        <v>0.32659152150154114</v>
+        <v>0.65157026052474976</v>
       </c>
       <c r="D19"/>
     </row>
@@ -652,10 +613,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1124</v>
+        <v>1975</v>
       </c>
       <c r="C20">
-        <v>0.37267905473709106</v>
+        <v>0.6528925895690918</v>
       </c>
       <c r="D20"/>
     </row>
@@ -664,10 +625,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1444</v>
+        <v>2035</v>
       </c>
       <c r="C21">
-        <v>0.47877985239028931</v>
+        <v>0.67272728681564331</v>
       </c>
       <c r="D21"/>
     </row>
@@ -676,10 +637,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1553</v>
+        <v>2416</v>
       </c>
       <c r="C22">
-        <v>0.51492041349411011</v>
+        <v>0.79867768287658691</v>
       </c>
       <c r="D22"/>
     </row>
@@ -688,10 +649,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1798</v>
+        <v>2436</v>
       </c>
       <c r="C23">
-        <v>0.5961538553237915</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D23"/>
     </row>
@@ -700,108 +661,12 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1817</v>
+        <v>2849</v>
       </c>
       <c r="C24">
-        <v>0.60245358943939209</v>
+        <v>0.94181817770004272</v>
       </c>
       <c r="D24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1859</v>
-      </c>
-      <c r="C25">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1866</v>
-      </c>
-      <c r="C26">
-        <v>0.61870026588439941</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1890</v>
-      </c>
-      <c r="C27">
-        <v>0.62665784358978271</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1951</v>
-      </c>
-      <c r="C28">
-        <v>0.64688330888748169</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>2133</v>
-      </c>
-      <c r="C29">
-        <v>0.70722812414169312</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>2357</v>
-      </c>
-      <c r="C30">
-        <v>0.78149867057800293</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>2424</v>
-      </c>
-      <c r="C31">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>2761</v>
-      </c>
-      <c r="C32">
-        <v>0.91545093059539795</v>
-      </c>
-      <c r="D32"/>
     </row>
   </sheetData>
 </worksheet>
@@ -809,607 +674,583 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B72"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>42</v>
-      </c>
-      <c r="B74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>43</v>
-      </c>
-      <c r="B75" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
